--- a/SubTestTags/Main.rvl.xlsx
+++ b/SubTestTags/Main.rvl.xlsx
@@ -174,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="192">
+  <borders count="196">
     <border>
       <left/>
       <right/>
@@ -373,11 +373,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -570,6 +574,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H26"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.34375" customWidth="true"/>
@@ -688,261 +696,282 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="56"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="64"/>
     </row>
     <row r="7">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="A7" s="170"/>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="170"/>
+      <c r="A8" s="181"/>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="168"/>
+      <c r="B9" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="181"/>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="167"/>
+      <c r="B10" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="168"/>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="167"/>
-      <c r="B11" t="s">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="81"/>
+      <c r="B12" s="82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="88"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="179"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="178"/>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" t="s">
         <v>24</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" t="s">
         <v>14</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="72"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="81"/>
-      <c r="B14" s="82" t="s">
+    <row r="15">
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="104"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="105"/>
+      <c r="B16" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C16" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="85" t="s">
+      <c r="D16" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="109" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="111" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="112"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="121"/>
+      <c r="B17" s="122"/>
+      <c r="C17" s="123"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="129"/>
+      <c r="B18" s="130" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="133" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="88"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="179"/>
-      <c r="B15" t="s">
+      <c r="F18" s="134" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="135" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="136"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="185"/>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="186"/>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="137"/>
+      <c r="B21" s="138"/>
+      <c r="C21" s="139"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="143"/>
+      <c r="H21" s="144"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="189"/>
+      <c r="B22" t="s">
         <v>3</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="178"/>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="91"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="96"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="104"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="107" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="108" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="109" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="111" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="112"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="121"/>
-      <c r="B21" s="122"/>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="128"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="129"/>
-      <c r="B22" s="130" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="131" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="133" t="s">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" t="s">
         <v>13</v>
       </c>
-      <c r="F22" s="134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="135" t="s">
-        <v>21</v>
-      </c>
-      <c r="H22" s="136"/>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="185"/>
+      <c r="A23" s="190"/>
       <c r="B23" t="s">
         <v>12</v>
       </c>
@@ -957,108 +986,47 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="186"/>
-      <c r="B24" t="s">
+      <c r="A24" s="145"/>
+      <c r="B24" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="E24" t="s">
-        <v>34</v>
-      </c>
-      <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="150" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="151" t="s">
+        <v>41</v>
+      </c>
+      <c r="H24" s="152"/>
     </row>
     <row r="25">
-      <c r="A25" s="137"/>
-      <c r="B25" s="138"/>
-      <c r="C25" s="139"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="144"/>
+      <c r="A25" s="191"/>
+      <c r="B25" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="189"/>
-      <c r="B26" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="190"/>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="145"/>
-      <c r="B28" s="146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="147"/>
-      <c r="D28" s="148"/>
-      <c r="E28" s="149" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="150" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" s="151" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="152"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="191"/>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="153"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="159"/>
-      <c r="H30" s="160"/>
+      <c r="A26" s="153"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="159"/>
+      <c r="H26" s="160"/>
     </row>
   </sheetData>
 </worksheet>
